--- a/vysledek.xlsx
+++ b/vysledek.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Výsledek" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL_dotaz" sheetId="2" r:id="rId2"/>
+    <sheet name="Storno_denik" sheetId="1" r:id="rId1"/>
+    <sheet name="O2_sluzby_stornovanych" sheetId="2" r:id="rId2"/>
+    <sheet name="TV_sluzby_aktivni" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="205">
   <si>
     <t>REPORT_ID</t>
   </si>
@@ -128,12 +129,12 @@
     <t>1940601236</t>
   </si>
   <si>
+    <t>1940988678</t>
+  </si>
+  <si>
     <t>1940989279</t>
   </si>
   <si>
-    <t>1940988678</t>
-  </si>
-  <si>
     <t>3609156347</t>
   </si>
   <si>
@@ -248,12 +249,12 @@
     <t>5914532048</t>
   </si>
   <si>
+    <t>5914530442</t>
+  </si>
+  <si>
     <t>5914530896</t>
   </si>
   <si>
-    <t>5914530442</t>
-  </si>
-  <si>
     <t>5914532435</t>
   </si>
   <si>
@@ -362,12 +363,12 @@
     <t>5914530508</t>
   </si>
   <si>
+    <t>284415783</t>
+  </si>
+  <si>
     <t>284418112</t>
   </si>
   <si>
-    <t>284415783</t>
-  </si>
-  <si>
     <t>284417735</t>
   </si>
   <si>
@@ -527,15 +528,109 @@
     <t>Y</t>
   </si>
   <si>
-    <t>SQL dotaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    SELECT * FROM MIGUSERP.REP_REKONCIL_STAV_V_EDENIKU rrsve
-    WHERE RRSVE.WAVE_ID = :wave_id
-      AND rrsve.STAV = 'storno'
-      AND REPORT_DATE &gt; TO_DATE('01-06-2025','DD-MM-YYYY')
-    </t>
+    <t>ZÁVAŽNOST</t>
+  </si>
+  <si>
+    <t>PLATCE_ID</t>
+  </si>
+  <si>
+    <t>POCET_PRIPOJEK</t>
+  </si>
+  <si>
+    <t>POCET_TV_SLUZEB</t>
+  </si>
+  <si>
+    <t>POCET_TV_SLUZEB_AKTIVNI</t>
+  </si>
+  <si>
+    <t>STAV_TV_SLUZEB</t>
+  </si>
+  <si>
+    <t>TV_SLUZEB_ID</t>
+  </si>
+  <si>
+    <t>POCET_INET_SLUZEB</t>
+  </si>
+  <si>
+    <t>POCET_INET_SLUZEB_AKTIVNI</t>
+  </si>
+  <si>
+    <t>STAV_INET_SLUZEB</t>
+  </si>
+  <si>
+    <t>INET_SLUZEB_ID</t>
+  </si>
+  <si>
+    <t>POCET_DALSICH_SLUZEB</t>
+  </si>
+  <si>
+    <t>POCET_DALSICH_SLUZEB_AKTIVNI</t>
+  </si>
+  <si>
+    <t>STAV_DALSICH_SLUZEB</t>
+  </si>
+  <si>
+    <t>DALSICH_SLUZEB_ID</t>
+  </si>
+  <si>
+    <t>DALSICH_SLUZEB_KOD</t>
+  </si>
+  <si>
+    <t>STATUS_REASON</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>ACTIVATED</t>
+  </si>
+  <si>
+    <t>8048997558</t>
+  </si>
+  <si>
+    <t>8048995797</t>
+  </si>
+  <si>
+    <t>8048997188</t>
+  </si>
+  <si>
+    <t>8048994787</t>
+  </si>
+  <si>
+    <t>8048996972</t>
+  </si>
+  <si>
+    <t>8048997565</t>
+  </si>
+  <si>
+    <t>8048996116</t>
+  </si>
+  <si>
+    <t>8048996973</t>
+  </si>
+  <si>
+    <t>8048994875</t>
+  </si>
+  <si>
+    <t>8048997483</t>
+  </si>
+  <si>
+    <t>8048995060</t>
+  </si>
+  <si>
+    <t>8048997515</t>
+  </si>
+  <si>
+    <t>8048997312</t>
+  </si>
+  <si>
+    <t>STOP - AISA stav EPLATCE "zrušená"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TS objednávka ještě není zpracovaná</t>
+  </si>
+  <si>
+    <t>STOP - AISA denik "storno"</t>
   </si>
 </sst>
 </file>
@@ -897,7 +992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE125"/>
+  <dimension ref="A1:AE63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,10 +1095,10 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B2" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1059,10 +1154,10 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B3" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -1118,10 +1213,10 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B4" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -1177,10 +1272,10 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B5" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1201,28 +1296,28 @@
         <v>115</v>
       </c>
       <c r="I5">
-        <v>4590023012</v>
+        <v>4541556391</v>
       </c>
       <c r="J5">
-        <v>841292</v>
+        <v>744744</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="U5">
-        <v>202505</v>
+        <v>202502</v>
       </c>
       <c r="Z5" t="s">
         <v>166</v>
       </c>
       <c r="AA5">
-        <v>841292</v>
+        <v>744744</v>
       </c>
       <c r="AB5">
         <v>948</v>
@@ -1239,10 +1334,10 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B6" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1254,13 +1349,13 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6">
         <v>4541556391</v>
@@ -1269,13 +1364,13 @@
         <v>744744</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U6">
         <v>202502</v>
@@ -1301,10 +1396,10 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B7" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -1325,28 +1420,28 @@
         <v>116</v>
       </c>
       <c r="I7">
-        <v>4541556391</v>
+        <v>4590023012</v>
       </c>
       <c r="J7">
-        <v>744744</v>
+        <v>841292</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U7">
-        <v>202502</v>
+        <v>202505</v>
       </c>
       <c r="Z7" t="s">
         <v>166</v>
       </c>
       <c r="AA7">
-        <v>744744</v>
+        <v>841292</v>
       </c>
       <c r="AB7">
         <v>948</v>
@@ -1363,10 +1458,10 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B8" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -1422,10 +1517,10 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B9" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -1437,13 +1532,13 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I9">
         <v>4590023012</v>
@@ -1484,10 +1579,10 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B10" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -1543,10 +1638,10 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B11" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -1605,10 +1700,10 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B12" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1664,10 +1759,10 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B13" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -1723,10 +1818,10 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B14" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -1782,10 +1877,10 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B15" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1841,10 +1936,10 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B16" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1900,10 +1995,10 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B17" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1959,10 +2054,10 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B18" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -1974,13 +2069,13 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I18">
         <v>4590023012</v>
@@ -2021,10 +2116,10 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B19" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -2080,10 +2175,10 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B20" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -2133,10 +2228,10 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B21" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -2183,10 +2278,10 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B22" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -2236,10 +2331,10 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B23" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -2289,10 +2384,10 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B24" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -2342,10 +2437,10 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B25" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -2395,10 +2490,10 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B26" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -2448,10 +2543,10 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B27" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -2463,13 +2558,13 @@
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27">
         <v>4541556391</v>
@@ -2501,10 +2596,10 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B28" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -2554,10 +2649,10 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B29" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -2607,10 +2702,10 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B30" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
@@ -2657,10 +2752,10 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B31" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -2710,10 +2805,10 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B32" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -2763,10 +2858,10 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B33" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -2816,10 +2911,10 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B34" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
@@ -2866,10 +2961,10 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B35" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -2916,10 +3011,10 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B36" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
@@ -2969,10 +3064,10 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B37" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
@@ -3019,10 +3114,10 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B38" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
@@ -3072,10 +3167,10 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B39" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -3122,10 +3217,10 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B40" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C40" t="s">
         <v>31</v>
@@ -3175,10 +3270,10 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B41" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
@@ -3228,10 +3323,10 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B42" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
@@ -3243,13 +3338,13 @@
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I42">
         <v>4590023012</v>
@@ -3281,10 +3376,10 @@
     </row>
     <row r="43" spans="1:31">
       <c r="A43">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B43" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
@@ -3331,10 +3426,10 @@
     </row>
     <row r="44" spans="1:31">
       <c r="A44">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B44" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
@@ -3381,10 +3476,10 @@
     </row>
     <row r="45" spans="1:31">
       <c r="A45">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B45" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
@@ -3434,10 +3529,10 @@
     </row>
     <row r="46" spans="1:31">
       <c r="A46">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B46" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C46" t="s">
         <v>31</v>
@@ -3484,10 +3579,10 @@
     </row>
     <row r="47" spans="1:31">
       <c r="A47">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B47" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
@@ -3537,10 +3632,10 @@
     </row>
     <row r="48" spans="1:31">
       <c r="A48">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B48" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C48" t="s">
         <v>31</v>
@@ -3590,10 +3685,10 @@
     </row>
     <row r="49" spans="1:31">
       <c r="A49">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B49" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
@@ -3640,10 +3735,10 @@
     </row>
     <row r="50" spans="1:31">
       <c r="A50">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B50" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C50" t="s">
         <v>31</v>
@@ -3690,10 +3785,10 @@
     </row>
     <row r="51" spans="1:31">
       <c r="A51">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B51" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C51" t="s">
         <v>31</v>
@@ -3743,10 +3838,10 @@
     </row>
     <row r="52" spans="1:31">
       <c r="A52">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B52" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C52" t="s">
         <v>31</v>
@@ -3796,10 +3891,10 @@
     </row>
     <row r="53" spans="1:31">
       <c r="A53">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B53" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C53" t="s">
         <v>31</v>
@@ -3846,10 +3941,10 @@
     </row>
     <row r="54" spans="1:31">
       <c r="A54">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B54" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C54" t="s">
         <v>31</v>
@@ -3899,10 +3994,10 @@
     </row>
     <row r="55" spans="1:31">
       <c r="A55">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B55" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
@@ -3952,10 +4047,10 @@
     </row>
     <row r="56" spans="1:31">
       <c r="A56">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B56" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C56" t="s">
         <v>31</v>
@@ -4002,10 +4097,10 @@
     </row>
     <row r="57" spans="1:31">
       <c r="A57">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B57" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C57" t="s">
         <v>31</v>
@@ -4052,10 +4147,10 @@
     </row>
     <row r="58" spans="1:31">
       <c r="A58">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B58" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C58" t="s">
         <v>31</v>
@@ -4105,10 +4200,10 @@
     </row>
     <row r="59" spans="1:31">
       <c r="A59">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B59" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C59" t="s">
         <v>31</v>
@@ -4155,10 +4250,10 @@
     </row>
     <row r="60" spans="1:31">
       <c r="A60">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B60" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
@@ -4208,10 +4303,10 @@
     </row>
     <row r="61" spans="1:31">
       <c r="A61">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B61" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C61" t="s">
         <v>31</v>
@@ -4261,10 +4356,10 @@
     </row>
     <row r="62" spans="1:31">
       <c r="A62">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B62" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C62" t="s">
         <v>31</v>
@@ -4314,10 +4409,10 @@
     </row>
     <row r="63" spans="1:31">
       <c r="A63">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="B63" s="2">
-        <v>45809.48755787037</v>
+        <v>45810.49168981481</v>
       </c>
       <c r="C63" t="s">
         <v>31</v>
@@ -4362,3373 +4457,6 @@
         <v>34</v>
       </c>
       <c r="AE63" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31">
-      <c r="A64">
-        <v>1741</v>
-      </c>
-      <c r="B64" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C64" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" t="s">
-        <v>75</v>
-      </c>
-      <c r="I64">
-        <v>5010380503</v>
-      </c>
-      <c r="J64">
-        <v>541680</v>
-      </c>
-      <c r="K64">
-        <v>24</v>
-      </c>
-      <c r="L64" t="s">
-        <v>142</v>
-      </c>
-      <c r="M64" t="s">
-        <v>142</v>
-      </c>
-      <c r="U64">
-        <v>202505</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA64">
-        <v>541680</v>
-      </c>
-      <c r="AB64">
-        <v>948</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31">
-      <c r="A65">
-        <v>1741</v>
-      </c>
-      <c r="B65" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" t="s">
-        <v>76</v>
-      </c>
-      <c r="I65">
-        <v>4910022934</v>
-      </c>
-      <c r="J65">
-        <v>836512</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" t="s">
-        <v>143</v>
-      </c>
-      <c r="M65" t="s">
-        <v>143</v>
-      </c>
-      <c r="U65">
-        <v>202505</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA65">
-        <v>836512</v>
-      </c>
-      <c r="AB65">
-        <v>948</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31">
-      <c r="A66">
-        <v>1741</v>
-      </c>
-      <c r="B66" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C66" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" t="s">
-        <v>76</v>
-      </c>
-      <c r="I66">
-        <v>4910022934</v>
-      </c>
-      <c r="J66">
-        <v>836512</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>143</v>
-      </c>
-      <c r="M66" t="s">
-        <v>143</v>
-      </c>
-      <c r="U66">
-        <v>202505</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA66">
-        <v>836512</v>
-      </c>
-      <c r="AB66">
-        <v>948</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31">
-      <c r="A67">
-        <v>1741</v>
-      </c>
-      <c r="B67" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C67" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67">
-        <v>4541556391</v>
-      </c>
-      <c r="J67">
-        <v>744744</v>
-      </c>
-      <c r="K67">
-        <v>2</v>
-      </c>
-      <c r="L67" t="s">
-        <v>144</v>
-      </c>
-      <c r="M67" t="s">
-        <v>144</v>
-      </c>
-      <c r="U67">
-        <v>202502</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA67">
-        <v>744744</v>
-      </c>
-      <c r="AB67">
-        <v>948</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31">
-      <c r="A68">
-        <v>1741</v>
-      </c>
-      <c r="B68" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" t="s">
-        <v>38</v>
-      </c>
-      <c r="G68" t="s">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s">
-        <v>116</v>
-      </c>
-      <c r="I68">
-        <v>4541556391</v>
-      </c>
-      <c r="J68">
-        <v>744744</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68" t="s">
-        <v>145</v>
-      </c>
-      <c r="M68" t="s">
-        <v>145</v>
-      </c>
-      <c r="U68">
-        <v>202502</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA68">
-        <v>744744</v>
-      </c>
-      <c r="AB68">
-        <v>948</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31">
-      <c r="A69">
-        <v>1741</v>
-      </c>
-      <c r="B69" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" t="s">
-        <v>77</v>
-      </c>
-      <c r="H69" t="s">
-        <v>115</v>
-      </c>
-      <c r="I69">
-        <v>4590023012</v>
-      </c>
-      <c r="J69">
-        <v>841292</v>
-      </c>
-      <c r="K69">
-        <v>4</v>
-      </c>
-      <c r="L69" t="s">
-        <v>142</v>
-      </c>
-      <c r="M69" t="s">
-        <v>142</v>
-      </c>
-      <c r="U69">
-        <v>202505</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA69">
-        <v>841292</v>
-      </c>
-      <c r="AB69">
-        <v>948</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31">
-      <c r="A70">
-        <v>1741</v>
-      </c>
-      <c r="B70" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C70" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" t="s">
-        <v>79</v>
-      </c>
-      <c r="I70">
-        <v>3190013179</v>
-      </c>
-      <c r="J70">
-        <v>238473</v>
-      </c>
-      <c r="K70">
-        <v>40</v>
-      </c>
-      <c r="L70" t="s">
-        <v>146</v>
-      </c>
-      <c r="M70" t="s">
-        <v>146</v>
-      </c>
-      <c r="U70">
-        <v>202505</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA70">
-        <v>238473</v>
-      </c>
-      <c r="AB70">
-        <v>948</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31">
-      <c r="A71">
-        <v>1741</v>
-      </c>
-      <c r="B71" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C71" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" t="s">
-        <v>77</v>
-      </c>
-      <c r="H71" t="s">
-        <v>115</v>
-      </c>
-      <c r="I71">
-        <v>4590023012</v>
-      </c>
-      <c r="J71">
-        <v>841292</v>
-      </c>
-      <c r="K71">
-        <v>3</v>
-      </c>
-      <c r="L71" t="s">
-        <v>147</v>
-      </c>
-      <c r="M71" t="s">
-        <v>147</v>
-      </c>
-      <c r="U71">
-        <v>202505</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA71">
-        <v>841292</v>
-      </c>
-      <c r="AB71">
-        <v>948</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31">
-      <c r="A72">
-        <v>1741</v>
-      </c>
-      <c r="B72" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C72" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" t="s">
-        <v>35</v>
-      </c>
-      <c r="G72" t="s">
-        <v>75</v>
-      </c>
-      <c r="I72">
-        <v>5010380503</v>
-      </c>
-      <c r="J72">
-        <v>541680</v>
-      </c>
-      <c r="K72">
-        <v>2</v>
-      </c>
-      <c r="L72" t="s">
-        <v>148</v>
-      </c>
-      <c r="M72" t="s">
-        <v>148</v>
-      </c>
-      <c r="U72">
-        <v>202505</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA72">
-        <v>541680</v>
-      </c>
-      <c r="AB72">
-        <v>948</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31">
-      <c r="A73">
-        <v>1741</v>
-      </c>
-      <c r="B73" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C73" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" t="s">
-        <v>40</v>
-      </c>
-      <c r="G73" t="s">
-        <v>80</v>
-      </c>
-      <c r="H73" t="s">
-        <v>117</v>
-      </c>
-      <c r="I73">
-        <v>4710156345</v>
-      </c>
-      <c r="J73">
-        <v>676973</v>
-      </c>
-      <c r="K73">
-        <v>2</v>
-      </c>
-      <c r="L73" t="s">
-        <v>149</v>
-      </c>
-      <c r="M73" t="s">
-        <v>149</v>
-      </c>
-      <c r="U73">
-        <v>202505</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA73">
-        <v>676973</v>
-      </c>
-      <c r="AB73">
-        <v>948</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31">
-      <c r="A74">
-        <v>1741</v>
-      </c>
-      <c r="B74" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C74" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" t="s">
-        <v>35</v>
-      </c>
-      <c r="G74" t="s">
-        <v>75</v>
-      </c>
-      <c r="I74">
-        <v>5010380503</v>
-      </c>
-      <c r="J74">
-        <v>541680</v>
-      </c>
-      <c r="K74">
-        <v>23</v>
-      </c>
-      <c r="L74" t="s">
-        <v>150</v>
-      </c>
-      <c r="M74" t="s">
-        <v>150</v>
-      </c>
-      <c r="U74">
-        <v>202505</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA74">
-        <v>541680</v>
-      </c>
-      <c r="AB74">
-        <v>948</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31">
-      <c r="A75">
-        <v>1741</v>
-      </c>
-      <c r="B75" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" t="s">
-        <v>79</v>
-      </c>
-      <c r="I75">
-        <v>3190013179</v>
-      </c>
-      <c r="J75">
-        <v>238473</v>
-      </c>
-      <c r="K75">
-        <v>41</v>
-      </c>
-      <c r="L75" t="s">
-        <v>142</v>
-      </c>
-      <c r="M75" t="s">
-        <v>142</v>
-      </c>
-      <c r="U75">
-        <v>202505</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA75">
-        <v>238473</v>
-      </c>
-      <c r="AB75">
-        <v>948</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31">
-      <c r="A76">
-        <v>1741</v>
-      </c>
-      <c r="B76" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C76" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" t="s">
-        <v>41</v>
-      </c>
-      <c r="G76" t="s">
-        <v>81</v>
-      </c>
-      <c r="I76">
-        <v>4540092586</v>
-      </c>
-      <c r="J76">
-        <v>723383</v>
-      </c>
-      <c r="K76">
-        <v>9</v>
-      </c>
-      <c r="L76" t="s">
-        <v>151</v>
-      </c>
-      <c r="M76" t="s">
-        <v>151</v>
-      </c>
-      <c r="U76">
-        <v>202505</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA76">
-        <v>723383</v>
-      </c>
-      <c r="AB76">
-        <v>948</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31">
-      <c r="A77">
-        <v>1741</v>
-      </c>
-      <c r="B77" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C77" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" t="s">
-        <v>42</v>
-      </c>
-      <c r="G77" t="s">
-        <v>82</v>
-      </c>
-      <c r="I77">
-        <v>4190046086</v>
-      </c>
-      <c r="J77">
-        <v>700585</v>
-      </c>
-      <c r="K77">
-        <v>2</v>
-      </c>
-      <c r="L77" t="s">
-        <v>146</v>
-      </c>
-      <c r="M77" t="s">
-        <v>146</v>
-      </c>
-      <c r="U77">
-        <v>202505</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA77">
-        <v>700585</v>
-      </c>
-      <c r="AB77">
-        <v>948</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31">
-      <c r="A78">
-        <v>1741</v>
-      </c>
-      <c r="B78" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s">
-        <v>83</v>
-      </c>
-      <c r="I78">
-        <v>4010024969</v>
-      </c>
-      <c r="J78">
-        <v>441515</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
-        <v>152</v>
-      </c>
-      <c r="M78" t="s">
-        <v>152</v>
-      </c>
-      <c r="U78">
-        <v>202505</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA78">
-        <v>441515</v>
-      </c>
-      <c r="AB78">
-        <v>948</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31">
-      <c r="A79">
-        <v>1741</v>
-      </c>
-      <c r="B79" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C79" t="s">
-        <v>31</v>
-      </c>
-      <c r="D79" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" t="s">
-        <v>81</v>
-      </c>
-      <c r="I79">
-        <v>4540092586</v>
-      </c>
-      <c r="J79">
-        <v>723383</v>
-      </c>
-      <c r="K79">
-        <v>7</v>
-      </c>
-      <c r="L79" t="s">
-        <v>153</v>
-      </c>
-      <c r="M79" t="s">
-        <v>153</v>
-      </c>
-      <c r="U79">
-        <v>202505</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA79">
-        <v>723383</v>
-      </c>
-      <c r="AB79">
-        <v>948</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31">
-      <c r="A80">
-        <v>1741</v>
-      </c>
-      <c r="B80" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C80" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" t="s">
-        <v>34</v>
-      </c>
-      <c r="F80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G80" t="s">
-        <v>77</v>
-      </c>
-      <c r="H80" t="s">
-        <v>115</v>
-      </c>
-      <c r="I80">
-        <v>4590023012</v>
-      </c>
-      <c r="J80">
-        <v>841292</v>
-      </c>
-      <c r="K80">
-        <v>6</v>
-      </c>
-      <c r="L80" t="s">
-        <v>154</v>
-      </c>
-      <c r="M80" t="s">
-        <v>154</v>
-      </c>
-      <c r="U80">
-        <v>202505</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA80">
-        <v>841292</v>
-      </c>
-      <c r="AB80">
-        <v>948</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31">
-      <c r="A81">
-        <v>1741</v>
-      </c>
-      <c r="B81" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C81" t="s">
-        <v>31</v>
-      </c>
-      <c r="D81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s">
-        <v>75</v>
-      </c>
-      <c r="I81">
-        <v>5010380503</v>
-      </c>
-      <c r="J81">
-        <v>541680</v>
-      </c>
-      <c r="K81">
-        <v>7</v>
-      </c>
-      <c r="L81" t="s">
-        <v>155</v>
-      </c>
-      <c r="M81" t="s">
-        <v>155</v>
-      </c>
-      <c r="U81">
-        <v>202505</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA81">
-        <v>541680</v>
-      </c>
-      <c r="AB81">
-        <v>948</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31">
-      <c r="A82">
-        <v>1741</v>
-      </c>
-      <c r="B82" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" t="s">
-        <v>33</v>
-      </c>
-      <c r="E82" t="s">
-        <v>34</v>
-      </c>
-      <c r="F82" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82" t="s">
-        <v>84</v>
-      </c>
-      <c r="H82" t="s">
-        <v>118</v>
-      </c>
-      <c r="I82">
-        <v>4540119080</v>
-      </c>
-      <c r="J82">
-        <v>724199</v>
-      </c>
-      <c r="M82" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA82">
-        <v>724199</v>
-      </c>
-      <c r="AB82">
-        <v>948</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD82" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31">
-      <c r="A83">
-        <v>1741</v>
-      </c>
-      <c r="B83" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C83" t="s">
-        <v>31</v>
-      </c>
-      <c r="D83" t="s">
-        <v>33</v>
-      </c>
-      <c r="E83" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" t="s">
-        <v>76</v>
-      </c>
-      <c r="I83">
-        <v>4910022934</v>
-      </c>
-      <c r="J83">
-        <v>836512</v>
-      </c>
-      <c r="M83" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA83">
-        <v>836512</v>
-      </c>
-      <c r="AB83">
-        <v>948</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31">
-      <c r="A84">
-        <v>1741</v>
-      </c>
-      <c r="B84" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C84" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" t="s">
-        <v>33</v>
-      </c>
-      <c r="E84" t="s">
-        <v>34</v>
-      </c>
-      <c r="F84" t="s">
-        <v>45</v>
-      </c>
-      <c r="G84" t="s">
-        <v>85</v>
-      </c>
-      <c r="H84" t="s">
-        <v>119</v>
-      </c>
-      <c r="I84">
-        <v>4710178987</v>
-      </c>
-      <c r="J84">
-        <v>678201</v>
-      </c>
-      <c r="M84" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA84">
-        <v>678201</v>
-      </c>
-      <c r="AB84">
-        <v>948</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31">
-      <c r="A85">
-        <v>1741</v>
-      </c>
-      <c r="B85" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C85" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85" t="s">
-        <v>33</v>
-      </c>
-      <c r="E85" t="s">
-        <v>34</v>
-      </c>
-      <c r="F85" t="s">
-        <v>45</v>
-      </c>
-      <c r="G85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H85" t="s">
-        <v>119</v>
-      </c>
-      <c r="I85">
-        <v>4710178987</v>
-      </c>
-      <c r="J85">
-        <v>678201</v>
-      </c>
-      <c r="M85" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA85">
-        <v>678201</v>
-      </c>
-      <c r="AB85">
-        <v>948</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31">
-      <c r="A86">
-        <v>1741</v>
-      </c>
-      <c r="B86" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C86" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" t="s">
-        <v>33</v>
-      </c>
-      <c r="E86" t="s">
-        <v>34</v>
-      </c>
-      <c r="F86" t="s">
-        <v>46</v>
-      </c>
-      <c r="G86" t="s">
-        <v>86</v>
-      </c>
-      <c r="H86" t="s">
-        <v>120</v>
-      </c>
-      <c r="I86">
-        <v>5140001501</v>
-      </c>
-      <c r="J86">
-        <v>667767</v>
-      </c>
-      <c r="M86" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA86">
-        <v>667767</v>
-      </c>
-      <c r="AB86">
-        <v>948</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31">
-      <c r="A87">
-        <v>1741</v>
-      </c>
-      <c r="B87" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C87" t="s">
-        <v>31</v>
-      </c>
-      <c r="D87" t="s">
-        <v>33</v>
-      </c>
-      <c r="E87" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87" t="s">
-        <v>87</v>
-      </c>
-      <c r="H87" t="s">
-        <v>121</v>
-      </c>
-      <c r="I87">
-        <v>5010719660</v>
-      </c>
-      <c r="J87">
-        <v>525628</v>
-      </c>
-      <c r="M87" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA87">
-        <v>525628</v>
-      </c>
-      <c r="AB87">
-        <v>948</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD87" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31">
-      <c r="A88">
-        <v>1741</v>
-      </c>
-      <c r="B88" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C88" t="s">
-        <v>31</v>
-      </c>
-      <c r="D88" t="s">
-        <v>33</v>
-      </c>
-      <c r="E88" t="s">
-        <v>34</v>
-      </c>
-      <c r="F88" t="s">
-        <v>48</v>
-      </c>
-      <c r="G88" t="s">
-        <v>88</v>
-      </c>
-      <c r="H88" t="s">
-        <v>122</v>
-      </c>
-      <c r="I88">
-        <v>4540146207</v>
-      </c>
-      <c r="J88">
-        <v>725242</v>
-      </c>
-      <c r="M88" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA88">
-        <v>725242</v>
-      </c>
-      <c r="AB88">
-        <v>948</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD88" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31">
-      <c r="A89">
-        <v>1741</v>
-      </c>
-      <c r="B89" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C89" t="s">
-        <v>31</v>
-      </c>
-      <c r="D89" t="s">
-        <v>33</v>
-      </c>
-      <c r="E89" t="s">
-        <v>34</v>
-      </c>
-      <c r="F89" t="s">
-        <v>38</v>
-      </c>
-      <c r="G89" t="s">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s">
-        <v>116</v>
-      </c>
-      <c r="I89">
-        <v>4541556391</v>
-      </c>
-      <c r="J89">
-        <v>744744</v>
-      </c>
-      <c r="M89" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA89">
-        <v>744744</v>
-      </c>
-      <c r="AB89">
-        <v>948</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31">
-      <c r="A90">
-        <v>1741</v>
-      </c>
-      <c r="B90" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C90" t="s">
-        <v>31</v>
-      </c>
-      <c r="D90" t="s">
-        <v>33</v>
-      </c>
-      <c r="E90" t="s">
-        <v>34</v>
-      </c>
-      <c r="F90" t="s">
-        <v>49</v>
-      </c>
-      <c r="G90" t="s">
-        <v>89</v>
-      </c>
-      <c r="H90" t="s">
-        <v>123</v>
-      </c>
-      <c r="I90">
-        <v>5011068518</v>
-      </c>
-      <c r="J90">
-        <v>504507</v>
-      </c>
-      <c r="M90" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA90">
-        <v>504507</v>
-      </c>
-      <c r="AB90">
-        <v>948</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31">
-      <c r="A91">
-        <v>1741</v>
-      </c>
-      <c r="B91" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C91" t="s">
-        <v>31</v>
-      </c>
-      <c r="D91" t="s">
-        <v>33</v>
-      </c>
-      <c r="E91" t="s">
-        <v>34</v>
-      </c>
-      <c r="F91" t="s">
-        <v>50</v>
-      </c>
-      <c r="G91" t="s">
-        <v>90</v>
-      </c>
-      <c r="H91" t="s">
-        <v>124</v>
-      </c>
-      <c r="I91">
-        <v>4542019306</v>
-      </c>
-      <c r="J91">
-        <v>768540</v>
-      </c>
-      <c r="M91" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA91">
-        <v>768540</v>
-      </c>
-      <c r="AB91">
-        <v>948</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD91" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE91" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31">
-      <c r="A92">
-        <v>1741</v>
-      </c>
-      <c r="B92" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C92" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" t="s">
-        <v>33</v>
-      </c>
-      <c r="E92" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" t="s">
-        <v>51</v>
-      </c>
-      <c r="G92" t="s">
-        <v>91</v>
-      </c>
-      <c r="I92">
-        <v>4910057157</v>
-      </c>
-      <c r="J92">
-        <v>795654</v>
-      </c>
-      <c r="M92" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA92">
-        <v>795654</v>
-      </c>
-      <c r="AB92">
-        <v>948</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:31">
-      <c r="A93">
-        <v>1741</v>
-      </c>
-      <c r="B93" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C93" t="s">
-        <v>31</v>
-      </c>
-      <c r="D93" t="s">
-        <v>33</v>
-      </c>
-      <c r="E93" t="s">
-        <v>34</v>
-      </c>
-      <c r="F93" t="s">
-        <v>52</v>
-      </c>
-      <c r="G93" t="s">
-        <v>92</v>
-      </c>
-      <c r="H93" t="s">
-        <v>125</v>
-      </c>
-      <c r="I93">
-        <v>3590064624</v>
-      </c>
-      <c r="J93">
-        <v>372336</v>
-      </c>
-      <c r="M93" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA93">
-        <v>372336</v>
-      </c>
-      <c r="AB93">
-        <v>948</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31">
-      <c r="A94">
-        <v>1741</v>
-      </c>
-      <c r="B94" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C94" t="s">
-        <v>31</v>
-      </c>
-      <c r="D94" t="s">
-        <v>33</v>
-      </c>
-      <c r="E94" t="s">
-        <v>34</v>
-      </c>
-      <c r="F94" t="s">
-        <v>53</v>
-      </c>
-      <c r="G94" t="s">
-        <v>93</v>
-      </c>
-      <c r="H94" t="s">
-        <v>126</v>
-      </c>
-      <c r="I94">
-        <v>4542092626</v>
-      </c>
-      <c r="J94">
-        <v>776036</v>
-      </c>
-      <c r="M94" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA94">
-        <v>776036</v>
-      </c>
-      <c r="AB94">
-        <v>948</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD94" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31">
-      <c r="A95">
-        <v>1741</v>
-      </c>
-      <c r="B95" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C95" t="s">
-        <v>31</v>
-      </c>
-      <c r="D95" t="s">
-        <v>33</v>
-      </c>
-      <c r="E95" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" t="s">
-        <v>54</v>
-      </c>
-      <c r="G95" t="s">
-        <v>94</v>
-      </c>
-      <c r="H95" t="s">
-        <v>127</v>
-      </c>
-      <c r="I95">
-        <v>5010708453</v>
-      </c>
-      <c r="J95">
-        <v>525158</v>
-      </c>
-      <c r="M95" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA95">
-        <v>525158</v>
-      </c>
-      <c r="AB95">
-        <v>948</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31">
-      <c r="A96">
-        <v>1741</v>
-      </c>
-      <c r="B96" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C96" t="s">
-        <v>31</v>
-      </c>
-      <c r="D96" t="s">
-        <v>33</v>
-      </c>
-      <c r="E96" t="s">
-        <v>34</v>
-      </c>
-      <c r="F96" t="s">
-        <v>41</v>
-      </c>
-      <c r="G96" t="s">
-        <v>81</v>
-      </c>
-      <c r="I96">
-        <v>4540092586</v>
-      </c>
-      <c r="J96">
-        <v>723383</v>
-      </c>
-      <c r="M96" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA96">
-        <v>723383</v>
-      </c>
-      <c r="AB96">
-        <v>948</v>
-      </c>
-      <c r="AC96" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD96" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:31">
-      <c r="A97">
-        <v>1741</v>
-      </c>
-      <c r="B97" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C97" t="s">
-        <v>31</v>
-      </c>
-      <c r="D97" t="s">
-        <v>33</v>
-      </c>
-      <c r="E97" t="s">
-        <v>34</v>
-      </c>
-      <c r="F97" t="s">
-        <v>43</v>
-      </c>
-      <c r="G97" t="s">
-        <v>83</v>
-      </c>
-      <c r="I97">
-        <v>4010024969</v>
-      </c>
-      <c r="J97">
-        <v>441515</v>
-      </c>
-      <c r="M97" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA97">
-        <v>441515</v>
-      </c>
-      <c r="AB97">
-        <v>948</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD97" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:31">
-      <c r="A98">
-        <v>1741</v>
-      </c>
-      <c r="B98" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C98" t="s">
-        <v>31</v>
-      </c>
-      <c r="D98" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" t="s">
-        <v>55</v>
-      </c>
-      <c r="G98" t="s">
-        <v>95</v>
-      </c>
-      <c r="H98" t="s">
-        <v>128</v>
-      </c>
-      <c r="I98">
-        <v>4190020114</v>
-      </c>
-      <c r="J98">
-        <v>618389</v>
-      </c>
-      <c r="M98" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z98" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA98">
-        <v>618389</v>
-      </c>
-      <c r="AB98">
-        <v>948</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD98" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE98" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31">
-      <c r="A99">
-        <v>1741</v>
-      </c>
-      <c r="B99" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C99" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99" t="s">
-        <v>34</v>
-      </c>
-      <c r="F99" t="s">
-        <v>42</v>
-      </c>
-      <c r="G99" t="s">
-        <v>82</v>
-      </c>
-      <c r="I99">
-        <v>4190046086</v>
-      </c>
-      <c r="J99">
-        <v>700585</v>
-      </c>
-      <c r="M99" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA99">
-        <v>700585</v>
-      </c>
-      <c r="AB99">
-        <v>948</v>
-      </c>
-      <c r="AC99" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD99" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE99" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100" spans="1:31">
-      <c r="A100">
-        <v>1741</v>
-      </c>
-      <c r="B100" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C100" t="s">
-        <v>31</v>
-      </c>
-      <c r="D100" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" t="s">
-        <v>34</v>
-      </c>
-      <c r="F100" t="s">
-        <v>56</v>
-      </c>
-      <c r="G100" t="s">
-        <v>96</v>
-      </c>
-      <c r="H100" t="s">
-        <v>129</v>
-      </c>
-      <c r="I100">
-        <v>5011191043</v>
-      </c>
-      <c r="J100">
-        <v>496251</v>
-      </c>
-      <c r="M100" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA100">
-        <v>496251</v>
-      </c>
-      <c r="AB100">
-        <v>948</v>
-      </c>
-      <c r="AC100" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD100" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31">
-      <c r="A101">
-        <v>1741</v>
-      </c>
-      <c r="B101" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C101" t="s">
-        <v>31</v>
-      </c>
-      <c r="D101" t="s">
-        <v>33</v>
-      </c>
-      <c r="E101" t="s">
-        <v>34</v>
-      </c>
-      <c r="F101" t="s">
-        <v>57</v>
-      </c>
-      <c r="G101" t="s">
-        <v>97</v>
-      </c>
-      <c r="I101">
-        <v>4542104415</v>
-      </c>
-      <c r="J101">
-        <v>776123</v>
-      </c>
-      <c r="M101" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA101">
-        <v>776123</v>
-      </c>
-      <c r="AB101">
-        <v>948</v>
-      </c>
-      <c r="AC101" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" spans="1:31">
-      <c r="A102">
-        <v>1741</v>
-      </c>
-      <c r="B102" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C102" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102" t="s">
-        <v>33</v>
-      </c>
-      <c r="E102" t="s">
-        <v>34</v>
-      </c>
-      <c r="F102" t="s">
-        <v>58</v>
-      </c>
-      <c r="G102" t="s">
-        <v>98</v>
-      </c>
-      <c r="H102" t="s">
-        <v>130</v>
-      </c>
-      <c r="I102">
-        <v>4541785458</v>
-      </c>
-      <c r="J102">
-        <v>755095</v>
-      </c>
-      <c r="M102" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z102" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA102">
-        <v>755095</v>
-      </c>
-      <c r="AB102">
-        <v>948</v>
-      </c>
-      <c r="AC102" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD102" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:31">
-      <c r="A103">
-        <v>1741</v>
-      </c>
-      <c r="B103" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C103" t="s">
-        <v>31</v>
-      </c>
-      <c r="D103" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103" t="s">
-        <v>34</v>
-      </c>
-      <c r="F103" t="s">
-        <v>59</v>
-      </c>
-      <c r="G103" t="s">
-        <v>99</v>
-      </c>
-      <c r="H103" t="s">
-        <v>131</v>
-      </c>
-      <c r="I103">
-        <v>4310421212</v>
-      </c>
-      <c r="J103">
-        <v>619422</v>
-      </c>
-      <c r="M103" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA103">
-        <v>619422</v>
-      </c>
-      <c r="AB103">
-        <v>948</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD103" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31">
-      <c r="A104">
-        <v>1741</v>
-      </c>
-      <c r="B104" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C104" t="s">
-        <v>31</v>
-      </c>
-      <c r="D104" t="s">
-        <v>33</v>
-      </c>
-      <c r="E104" t="s">
-        <v>34</v>
-      </c>
-      <c r="F104" t="s">
-        <v>37</v>
-      </c>
-      <c r="G104" t="s">
-        <v>77</v>
-      </c>
-      <c r="H104" t="s">
-        <v>115</v>
-      </c>
-      <c r="I104">
-        <v>4590023012</v>
-      </c>
-      <c r="J104">
-        <v>841292</v>
-      </c>
-      <c r="M104" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z104" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA104">
-        <v>841292</v>
-      </c>
-      <c r="AB104">
-        <v>948</v>
-      </c>
-      <c r="AC104" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD104" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE104" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31">
-      <c r="A105">
-        <v>1741</v>
-      </c>
-      <c r="B105" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C105" t="s">
-        <v>31</v>
-      </c>
-      <c r="D105" t="s">
-        <v>33</v>
-      </c>
-      <c r="E105" t="s">
-        <v>34</v>
-      </c>
-      <c r="F105" t="s">
-        <v>60</v>
-      </c>
-      <c r="G105" t="s">
-        <v>100</v>
-      </c>
-      <c r="I105">
-        <v>3990008830</v>
-      </c>
-      <c r="J105">
-        <v>356836</v>
-      </c>
-      <c r="M105" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA105">
-        <v>356836</v>
-      </c>
-      <c r="AB105">
-        <v>948</v>
-      </c>
-      <c r="AC105" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD105" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE105" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106" spans="1:31">
-      <c r="A106">
-        <v>1741</v>
-      </c>
-      <c r="B106" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C106" t="s">
-        <v>31</v>
-      </c>
-      <c r="D106" t="s">
-        <v>33</v>
-      </c>
-      <c r="E106" t="s">
-        <v>34</v>
-      </c>
-      <c r="F106" t="s">
-        <v>61</v>
-      </c>
-      <c r="G106" t="s">
-        <v>101</v>
-      </c>
-      <c r="I106">
-        <v>4541207314</v>
-      </c>
-      <c r="J106">
-        <v>735835</v>
-      </c>
-      <c r="M106" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA106">
-        <v>735835</v>
-      </c>
-      <c r="AB106">
-        <v>948</v>
-      </c>
-      <c r="AC106" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD106" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE106" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" spans="1:31">
-      <c r="A107">
-        <v>1741</v>
-      </c>
-      <c r="B107" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C107" t="s">
-        <v>31</v>
-      </c>
-      <c r="D107" t="s">
-        <v>33</v>
-      </c>
-      <c r="E107" t="s">
-        <v>34</v>
-      </c>
-      <c r="F107" t="s">
-        <v>62</v>
-      </c>
-      <c r="G107" t="s">
-        <v>102</v>
-      </c>
-      <c r="H107" t="s">
-        <v>132</v>
-      </c>
-      <c r="I107">
-        <v>4540439320</v>
-      </c>
-      <c r="J107">
-        <v>730786</v>
-      </c>
-      <c r="M107" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z107" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA107">
-        <v>730786</v>
-      </c>
-      <c r="AB107">
-        <v>948</v>
-      </c>
-      <c r="AC107" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD107" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE107" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="108" spans="1:31">
-      <c r="A108">
-        <v>1741</v>
-      </c>
-      <c r="B108" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C108" t="s">
-        <v>31</v>
-      </c>
-      <c r="D108" t="s">
-        <v>33</v>
-      </c>
-      <c r="E108" t="s">
-        <v>34</v>
-      </c>
-      <c r="F108" t="s">
-        <v>39</v>
-      </c>
-      <c r="G108" t="s">
-        <v>79</v>
-      </c>
-      <c r="I108">
-        <v>3190013179</v>
-      </c>
-      <c r="J108">
-        <v>238473</v>
-      </c>
-      <c r="M108" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA108">
-        <v>238473</v>
-      </c>
-      <c r="AB108">
-        <v>948</v>
-      </c>
-      <c r="AC108" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD108" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE108" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31">
-      <c r="A109">
-        <v>1741</v>
-      </c>
-      <c r="B109" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C109" t="s">
-        <v>31</v>
-      </c>
-      <c r="D109" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" t="s">
-        <v>34</v>
-      </c>
-      <c r="F109" t="s">
-        <v>63</v>
-      </c>
-      <c r="G109" t="s">
-        <v>103</v>
-      </c>
-      <c r="H109" t="s">
-        <v>133</v>
-      </c>
-      <c r="I109">
-        <v>5290035492</v>
-      </c>
-      <c r="J109">
-        <v>714766</v>
-      </c>
-      <c r="M109" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA109">
-        <v>714766</v>
-      </c>
-      <c r="AB109">
-        <v>948</v>
-      </c>
-      <c r="AC109" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD109" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE109" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31">
-      <c r="A110">
-        <v>1741</v>
-      </c>
-      <c r="B110" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C110" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110" t="s">
-        <v>33</v>
-      </c>
-      <c r="E110" t="s">
-        <v>34</v>
-      </c>
-      <c r="F110" t="s">
-        <v>64</v>
-      </c>
-      <c r="G110" t="s">
-        <v>104</v>
-      </c>
-      <c r="H110" t="s">
-        <v>134</v>
-      </c>
-      <c r="I110">
-        <v>5080009746</v>
-      </c>
-      <c r="J110">
-        <v>578912</v>
-      </c>
-      <c r="M110" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z110" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA110">
-        <v>578912</v>
-      </c>
-      <c r="AB110">
-        <v>948</v>
-      </c>
-      <c r="AC110" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD110" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31">
-      <c r="A111">
-        <v>1741</v>
-      </c>
-      <c r="B111" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C111" t="s">
-        <v>31</v>
-      </c>
-      <c r="D111" t="s">
-        <v>33</v>
-      </c>
-      <c r="E111" t="s">
-        <v>34</v>
-      </c>
-      <c r="F111" t="s">
-        <v>35</v>
-      </c>
-      <c r="G111" t="s">
-        <v>75</v>
-      </c>
-      <c r="I111">
-        <v>5010380503</v>
-      </c>
-      <c r="J111">
-        <v>541680</v>
-      </c>
-      <c r="M111" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z111" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA111">
-        <v>541680</v>
-      </c>
-      <c r="AB111">
-        <v>948</v>
-      </c>
-      <c r="AC111" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD111" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE111" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="112" spans="1:31">
-      <c r="A112">
-        <v>1741</v>
-      </c>
-      <c r="B112" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C112" t="s">
-        <v>31</v>
-      </c>
-      <c r="D112" t="s">
-        <v>33</v>
-      </c>
-      <c r="E112" t="s">
-        <v>34</v>
-      </c>
-      <c r="F112" t="s">
-        <v>35</v>
-      </c>
-      <c r="G112" t="s">
-        <v>75</v>
-      </c>
-      <c r="I112">
-        <v>5010380503</v>
-      </c>
-      <c r="J112">
-        <v>541680</v>
-      </c>
-      <c r="M112" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA112">
-        <v>541680</v>
-      </c>
-      <c r="AB112">
-        <v>948</v>
-      </c>
-      <c r="AC112" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD112" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE112" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113" spans="1:31">
-      <c r="A113">
-        <v>1741</v>
-      </c>
-      <c r="B113" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C113" t="s">
-        <v>31</v>
-      </c>
-      <c r="D113" t="s">
-        <v>33</v>
-      </c>
-      <c r="E113" t="s">
-        <v>34</v>
-      </c>
-      <c r="F113" t="s">
-        <v>65</v>
-      </c>
-      <c r="G113" t="s">
-        <v>105</v>
-      </c>
-      <c r="H113" t="s">
-        <v>135</v>
-      </c>
-      <c r="I113">
-        <v>3290013772</v>
-      </c>
-      <c r="J113">
-        <v>291717</v>
-      </c>
-      <c r="M113" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA113">
-        <v>291717</v>
-      </c>
-      <c r="AB113">
-        <v>948</v>
-      </c>
-      <c r="AC113" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD113" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE113" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" spans="1:31">
-      <c r="A114">
-        <v>1741</v>
-      </c>
-      <c r="B114" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C114" t="s">
-        <v>31</v>
-      </c>
-      <c r="D114" t="s">
-        <v>33</v>
-      </c>
-      <c r="E114" t="s">
-        <v>34</v>
-      </c>
-      <c r="F114" t="s">
-        <v>65</v>
-      </c>
-      <c r="G114" t="s">
-        <v>105</v>
-      </c>
-      <c r="H114" t="s">
-        <v>135</v>
-      </c>
-      <c r="I114">
-        <v>3290013772</v>
-      </c>
-      <c r="J114">
-        <v>291717</v>
-      </c>
-      <c r="M114" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z114" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA114">
-        <v>291717</v>
-      </c>
-      <c r="AB114">
-        <v>948</v>
-      </c>
-      <c r="AC114" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD114" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE114" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="1:31">
-      <c r="A115">
-        <v>1741</v>
-      </c>
-      <c r="B115" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C115" t="s">
-        <v>31</v>
-      </c>
-      <c r="D115" t="s">
-        <v>33</v>
-      </c>
-      <c r="E115" t="s">
-        <v>34</v>
-      </c>
-      <c r="F115" t="s">
-        <v>66</v>
-      </c>
-      <c r="G115" t="s">
-        <v>106</v>
-      </c>
-      <c r="I115">
-        <v>4540117376</v>
-      </c>
-      <c r="J115">
-        <v>724259</v>
-      </c>
-      <c r="M115" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA115">
-        <v>724259</v>
-      </c>
-      <c r="AB115">
-        <v>948</v>
-      </c>
-      <c r="AC115" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD115" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE115" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="116" spans="1:31">
-      <c r="A116">
-        <v>1741</v>
-      </c>
-      <c r="B116" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D116" t="s">
-        <v>33</v>
-      </c>
-      <c r="E116" t="s">
-        <v>34</v>
-      </c>
-      <c r="F116" t="s">
-        <v>67</v>
-      </c>
-      <c r="G116" t="s">
-        <v>107</v>
-      </c>
-      <c r="H116" t="s">
-        <v>136</v>
-      </c>
-      <c r="I116">
-        <v>3590191703</v>
-      </c>
-      <c r="J116">
-        <v>604634</v>
-      </c>
-      <c r="M116" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z116" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA116">
-        <v>604634</v>
-      </c>
-      <c r="AB116">
-        <v>948</v>
-      </c>
-      <c r="AC116" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD116" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE116" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="117" spans="1:31">
-      <c r="A117">
-        <v>1741</v>
-      </c>
-      <c r="B117" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C117" t="s">
-        <v>31</v>
-      </c>
-      <c r="D117" t="s">
-        <v>33</v>
-      </c>
-      <c r="E117" t="s">
-        <v>34</v>
-      </c>
-      <c r="F117" t="s">
-        <v>68</v>
-      </c>
-      <c r="G117" t="s">
-        <v>108</v>
-      </c>
-      <c r="H117" t="s">
-        <v>137</v>
-      </c>
-      <c r="I117">
-        <v>4550025484</v>
-      </c>
-      <c r="J117">
-        <v>806115</v>
-      </c>
-      <c r="M117" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA117">
-        <v>806115</v>
-      </c>
-      <c r="AB117">
-        <v>948</v>
-      </c>
-      <c r="AC117" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD117" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE117" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="118" spans="1:31">
-      <c r="A118">
-        <v>1741</v>
-      </c>
-      <c r="B118" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C118" t="s">
-        <v>31</v>
-      </c>
-      <c r="D118" t="s">
-        <v>33</v>
-      </c>
-      <c r="E118" t="s">
-        <v>34</v>
-      </c>
-      <c r="F118" t="s">
-        <v>69</v>
-      </c>
-      <c r="G118" t="s">
-        <v>109</v>
-      </c>
-      <c r="I118">
-        <v>5010564859</v>
-      </c>
-      <c r="J118">
-        <v>817732</v>
-      </c>
-      <c r="M118" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z118" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA118">
-        <v>817732</v>
-      </c>
-      <c r="AB118">
-        <v>948</v>
-      </c>
-      <c r="AC118" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD118" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE118" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="1:31">
-      <c r="A119">
-        <v>1741</v>
-      </c>
-      <c r="B119" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C119" t="s">
-        <v>31</v>
-      </c>
-      <c r="D119" t="s">
-        <v>33</v>
-      </c>
-      <c r="E119" t="s">
-        <v>34</v>
-      </c>
-      <c r="F119" t="s">
-        <v>69</v>
-      </c>
-      <c r="G119" t="s">
-        <v>109</v>
-      </c>
-      <c r="I119">
-        <v>5010564859</v>
-      </c>
-      <c r="J119">
-        <v>817732</v>
-      </c>
-      <c r="M119" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z119" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA119">
-        <v>817732</v>
-      </c>
-      <c r="AB119">
-        <v>948</v>
-      </c>
-      <c r="AC119" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD119" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE119" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="120" spans="1:31">
-      <c r="A120">
-        <v>1741</v>
-      </c>
-      <c r="B120" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C120" t="s">
-        <v>31</v>
-      </c>
-      <c r="D120" t="s">
-        <v>33</v>
-      </c>
-      <c r="E120" t="s">
-        <v>34</v>
-      </c>
-      <c r="F120" t="s">
-        <v>70</v>
-      </c>
-      <c r="G120" t="s">
-        <v>110</v>
-      </c>
-      <c r="H120" t="s">
-        <v>138</v>
-      </c>
-      <c r="I120">
-        <v>4542112852</v>
-      </c>
-      <c r="J120">
-        <v>776862</v>
-      </c>
-      <c r="M120" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA120">
-        <v>776862</v>
-      </c>
-      <c r="AB120">
-        <v>948</v>
-      </c>
-      <c r="AC120" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD120" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE120" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" spans="1:31">
-      <c r="A121">
-        <v>1741</v>
-      </c>
-      <c r="B121" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C121" t="s">
-        <v>31</v>
-      </c>
-      <c r="D121" t="s">
-        <v>33</v>
-      </c>
-      <c r="E121" t="s">
-        <v>34</v>
-      </c>
-      <c r="F121" t="s">
-        <v>71</v>
-      </c>
-      <c r="G121" t="s">
-        <v>111</v>
-      </c>
-      <c r="I121">
-        <v>4540131622</v>
-      </c>
-      <c r="J121">
-        <v>724783</v>
-      </c>
-      <c r="M121" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z121" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA121">
-        <v>724783</v>
-      </c>
-      <c r="AB121">
-        <v>948</v>
-      </c>
-      <c r="AC121" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD121" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE121" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:31">
-      <c r="A122">
-        <v>1741</v>
-      </c>
-      <c r="B122" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C122" t="s">
-        <v>31</v>
-      </c>
-      <c r="D122" t="s">
-        <v>33</v>
-      </c>
-      <c r="E122" t="s">
-        <v>34</v>
-      </c>
-      <c r="F122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G122" t="s">
-        <v>112</v>
-      </c>
-      <c r="H122" t="s">
-        <v>139</v>
-      </c>
-      <c r="I122">
-        <v>4540428075</v>
-      </c>
-      <c r="J122">
-        <v>730287</v>
-      </c>
-      <c r="M122" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z122" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA122">
-        <v>730287</v>
-      </c>
-      <c r="AB122">
-        <v>948</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD122" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE122" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="1:31">
-      <c r="A123">
-        <v>1741</v>
-      </c>
-      <c r="B123" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C123" t="s">
-        <v>31</v>
-      </c>
-      <c r="D123" t="s">
-        <v>33</v>
-      </c>
-      <c r="E123" t="s">
-        <v>34</v>
-      </c>
-      <c r="F123" t="s">
-        <v>73</v>
-      </c>
-      <c r="G123" t="s">
-        <v>113</v>
-      </c>
-      <c r="H123" t="s">
-        <v>140</v>
-      </c>
-      <c r="I123">
-        <v>5290013132</v>
-      </c>
-      <c r="J123">
-        <v>615397</v>
-      </c>
-      <c r="M123" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z123" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA123">
-        <v>615397</v>
-      </c>
-      <c r="AB123">
-        <v>948</v>
-      </c>
-      <c r="AC123" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD123" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE123" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:31">
-      <c r="A124">
-        <v>1741</v>
-      </c>
-      <c r="B124" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C124" t="s">
-        <v>31</v>
-      </c>
-      <c r="D124" t="s">
-        <v>33</v>
-      </c>
-      <c r="E124" t="s">
-        <v>34</v>
-      </c>
-      <c r="F124" t="s">
-        <v>40</v>
-      </c>
-      <c r="G124" t="s">
-        <v>80</v>
-      </c>
-      <c r="H124" t="s">
-        <v>117</v>
-      </c>
-      <c r="I124">
-        <v>4710156345</v>
-      </c>
-      <c r="J124">
-        <v>676973</v>
-      </c>
-      <c r="M124" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z124" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA124">
-        <v>676973</v>
-      </c>
-      <c r="AB124">
-        <v>948</v>
-      </c>
-      <c r="AC124" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD124" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE124" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="125" spans="1:31">
-      <c r="A125">
-        <v>1741</v>
-      </c>
-      <c r="B125" s="2">
-        <v>45810.49168981481</v>
-      </c>
-      <c r="C125" t="s">
-        <v>31</v>
-      </c>
-      <c r="D125" t="s">
-        <v>33</v>
-      </c>
-      <c r="E125" t="s">
-        <v>34</v>
-      </c>
-      <c r="F125" t="s">
-        <v>74</v>
-      </c>
-      <c r="G125" t="s">
-        <v>114</v>
-      </c>
-      <c r="H125" t="s">
-        <v>141</v>
-      </c>
-      <c r="I125">
-        <v>4541782978</v>
-      </c>
-      <c r="J125">
-        <v>754463</v>
-      </c>
-      <c r="M125" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z125" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA125">
-        <v>754463</v>
-      </c>
-      <c r="AB125">
-        <v>948</v>
-      </c>
-      <c r="AC125" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD125" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE125" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7739,20 +4467,2647 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>171</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>1801</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2">
+        <v>202506010001</v>
+      </c>
+      <c r="E2">
+        <v>5010380503</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>1801</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3">
+        <v>202506010001</v>
+      </c>
+      <c r="E3">
+        <v>4910022934</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>1801</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4">
+        <v>202506010001</v>
+      </c>
+      <c r="E4">
+        <v>4541556391</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>1801</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5">
+        <v>202506010001</v>
+      </c>
+      <c r="E5">
+        <v>4590023012</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>1801</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6">
+        <v>202506010001</v>
+      </c>
+      <c r="E6">
+        <v>3190013179</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>1801</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7">
+        <v>202506010001</v>
+      </c>
+      <c r="E7">
+        <v>4710156345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>1801</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8">
+        <v>202506010001</v>
+      </c>
+      <c r="E8">
+        <v>4540092586</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>1801</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9">
+        <v>202506010001</v>
+      </c>
+      <c r="E9">
+        <v>4190046086</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>1801</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10">
+        <v>202506010001</v>
+      </c>
+      <c r="E10">
+        <v>4010024969</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>1801</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11">
+        <v>202506010001</v>
+      </c>
+      <c r="E11">
+        <v>4540119080</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>1801</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12">
+        <v>202506010001</v>
+      </c>
+      <c r="E12">
+        <v>4710178987</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>1801</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13">
+        <v>202506010001</v>
+      </c>
+      <c r="E13">
+        <v>5140001501</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>1801</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14">
+        <v>202506010001</v>
+      </c>
+      <c r="E14">
+        <v>5010719660</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>1801</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15">
+        <v>202506010001</v>
+      </c>
+      <c r="E15">
+        <v>4540146207</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>1801</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16">
+        <v>202506010001</v>
+      </c>
+      <c r="E16">
+        <v>5011068518</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s">
+        <v>194</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>1801</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17">
+        <v>202506010001</v>
+      </c>
+      <c r="E17">
+        <v>4542019306</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" t="s">
+        <v>195</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>1801</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18">
+        <v>202506010001</v>
+      </c>
+      <c r="E18">
+        <v>4910057157</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>1801</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19">
+        <v>202506010001</v>
+      </c>
+      <c r="E19">
+        <v>3590064624</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>1801</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20">
+        <v>202506010001</v>
+      </c>
+      <c r="E20">
+        <v>4542092626</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>1801</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21">
+        <v>202506010001</v>
+      </c>
+      <c r="E21">
+        <v>5010708453</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>1801</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22">
+        <v>202506010001</v>
+      </c>
+      <c r="E22">
+        <v>4190020114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>1801</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23">
+        <v>202506010001</v>
+      </c>
+      <c r="E23">
+        <v>5011191043</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>1801</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24">
+        <v>202506010001</v>
+      </c>
+      <c r="E24">
+        <v>4542104415</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>1801</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25">
+        <v>202506010001</v>
+      </c>
+      <c r="E25">
+        <v>4541785458</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>1801</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26">
+        <v>202506010001</v>
+      </c>
+      <c r="E26">
+        <v>4310421212</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>1801</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27">
+        <v>202506010001</v>
+      </c>
+      <c r="E27">
+        <v>3990008830</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>1801</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28">
+        <v>202506010001</v>
+      </c>
+      <c r="E28">
+        <v>4541207314</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>1801</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29">
+        <v>202506010001</v>
+      </c>
+      <c r="E29">
+        <v>4540439320</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>1801</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30">
+        <v>202506010001</v>
+      </c>
+      <c r="E30">
+        <v>5290035492</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31">
+        <v>1801</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31">
+        <v>202506010001</v>
+      </c>
+      <c r="E31">
+        <v>5080009746</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32">
+        <v>1801</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32">
+        <v>202506010001</v>
+      </c>
+      <c r="E32">
+        <v>3290013772</v>
+      </c>
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33">
+        <v>1801</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33">
+        <v>202506010001</v>
+      </c>
+      <c r="E33">
+        <v>4540117376</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34">
+        <v>1801</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34">
+        <v>202506010001</v>
+      </c>
+      <c r="E34">
+        <v>3590191703</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35">
+        <v>1801</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35">
+        <v>202506010001</v>
+      </c>
+      <c r="E35">
+        <v>4550025484</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>188</v>
+      </c>
+      <c r="L35" t="s">
+        <v>201</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36">
+        <v>1801</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36">
+        <v>202506010001</v>
+      </c>
+      <c r="E36">
+        <v>5010564859</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37">
+        <v>1801</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37">
+        <v>202506010001</v>
+      </c>
+      <c r="E37">
+        <v>4542112852</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38">
+        <v>1801</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38">
+        <v>202506010001</v>
+      </c>
+      <c r="E38">
+        <v>4540131622</v>
+      </c>
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="V38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39">
+        <v>1801</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39">
+        <v>202506010001</v>
+      </c>
+      <c r="E39">
+        <v>4540428075</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40">
+        <v>1801</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40">
+        <v>202506010001</v>
+      </c>
+      <c r="E40">
+        <v>5290013132</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="V40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41">
+        <v>1801</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41">
+        <v>202506010001</v>
+      </c>
+      <c r="E41">
+        <v>4541782978</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>1801</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2">
+        <v>202506010001</v>
+      </c>
+      <c r="E2">
+        <v>4541556391</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>1801</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3">
+        <v>202506010001</v>
+      </c>
+      <c r="E3">
+        <v>4590023012</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>1801</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4">
+        <v>202506010001</v>
+      </c>
+      <c r="E4">
+        <v>4710156345</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>1801</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5">
+        <v>202506010001</v>
+      </c>
+      <c r="E5">
+        <v>4540119080</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>1801</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6">
+        <v>202506010001</v>
+      </c>
+      <c r="E6">
+        <v>4540146207</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>1801</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7">
+        <v>202506010001</v>
+      </c>
+      <c r="E7">
+        <v>5011068518</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>1801</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8">
+        <v>202506010001</v>
+      </c>
+      <c r="E8">
+        <v>4542019306</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" t="s">
+        <v>195</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>1801</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9">
+        <v>202506010001</v>
+      </c>
+      <c r="E9">
+        <v>4542092626</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L9" t="s">
+        <v>196</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>1801</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10">
+        <v>202506010001</v>
+      </c>
+      <c r="E10">
+        <v>4190020114</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>1801</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11">
+        <v>202506010001</v>
+      </c>
+      <c r="E11">
+        <v>5011191043</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" t="s">
+        <v>198</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>1801</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12">
+        <v>202506010001</v>
+      </c>
+      <c r="E12">
+        <v>4541785458</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>188</v>
+      </c>
+      <c r="L12" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>1801</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13">
+        <v>202506010001</v>
+      </c>
+      <c r="E13">
+        <v>4310421212</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" t="s">
+        <v>200</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>1801</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45810.48775462963</v>
+      </c>
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14">
+        <v>202506010001</v>
+      </c>
+      <c r="E14">
+        <v>4550025484</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" t="s">
+        <v>201</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
